--- a/Data Collection/execution_result.xlsx
+++ b/Data Collection/execution_result.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yingw\Desktop\561\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1000" sheetId="6" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="89">
   <si>
     <t>Q5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,13 +61,244 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>match (p:Person) where p.age&gt;=0 and p.age&lt;=10 return p;</t>
+  </si>
+  <si>
+    <t>match (p:Person) where p.age&gt;=0 and p.age&lt;=20 return p;</t>
+  </si>
+  <si>
+    <t>match (p:Person) where p.age&gt;=0 and p.age&lt;=30 return p;</t>
+  </si>
+  <si>
+    <t>match (p:Person) where p.age&gt;=0 and p.age&lt;=40 return p;</t>
+  </si>
+  <si>
+    <t>match (p:Person) where p.age&gt;=0 and p.age&lt;=50 return p;</t>
+  </si>
+  <si>
+    <t>match (p:Person) where p.age&gt;=0 and p.age&lt;=60 return p;</t>
+  </si>
+  <si>
+    <t>match (p:Person) where p.age&gt;=0 and p.age&lt;=70 return p;</t>
+  </si>
+  <si>
+    <t>match (p:Person) where p.age&gt;=0 and p.age&lt;=80 return p;</t>
+  </si>
+  <si>
+    <t>match (p:Person) where p.age&gt;=0 and p.age&lt;=90 return p;</t>
+  </si>
+  <si>
+    <t>match (p:Person) where p.age&gt;=0 and p.age&lt;=100 return p;</t>
+  </si>
+  <si>
+    <t>match (p:Person) where p.gender='Male' return p;</t>
+  </si>
+  <si>
+    <t>match (p:Person) where p.gender='Male' or p.gender='Female' return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where p.gender='Male' and p.age&gt;=0 and p.age&lt;=10 return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where p.gender='Male' and p.age&gt;=0 and p.age&lt;=20 return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where p.gender='Male' and p.age&gt;=0 and p.age&lt;=30 return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where p.gender='Male' and p.age&gt;=0 and p.age&lt;=40 return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where p.gender='Male' and p.age&gt;=0 and p.age&lt;=50 return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where p.gender='Male' and p.age&gt;=0 and p.age&lt;=60 return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where p.gender='Male' and p.age&gt;=0 and p.age&lt;=70 return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where p.gender='Male' and p.age&gt;=0 and p.age&lt;=80 return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where p.gender='Male' and p.age&gt;=0 and p.age&lt;=90 return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where p.gender='Male' and p.age&gt;=0 and p.age&lt;=100 return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=10) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=10) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=10) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=20) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=10) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=30) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=10) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=40) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=10) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=50) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=10) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=60) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=10) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=70) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=10) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=80) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=10) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=90) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=10) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=100) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=20) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=20) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=20) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=30) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=20) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=40) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=20) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=50) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=20) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=60) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=20) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=70) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=20) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=80) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=20) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=90) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=20) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=100) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=30) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=30) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=30) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=40) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=30) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=50) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=30) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=60) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=30) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=70) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=30) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=80) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=30) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=90) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=30) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=100) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=40) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=40 return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=40) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=50) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=40) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=60) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=40) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=70) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=40) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=80) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=40) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=90) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=40) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=100) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=50) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=50) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=50) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=70) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=50) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=60) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=50) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=80) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=50) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=90) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=50) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=100) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=60) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=60) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=60) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=70) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=60) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=80) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=60) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=90) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=60) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=100) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=70) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=70) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=70) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=80) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=70) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=90) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=70) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=100) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=80) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=80) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=80) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=90) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=80) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=100) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=90) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=90) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=90) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=100) return p;</t>
+  </si>
+  <si>
+    <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=100) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=100) return p;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3116,6 +3352,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3443,16 +3687,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="8" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" customWidth="1"/>
-    <col min="4" max="8" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="113.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3488,6 +3732,9 @@
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8">
@@ -3496,6 +3743,9 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8">
@@ -3504,6 +3754,9 @@
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8">
@@ -3512,6 +3765,9 @@
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8">
@@ -3520,6 +3776,9 @@
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8">
@@ -3528,6 +3787,9 @@
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8">
@@ -3536,6 +3798,9 @@
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8">
@@ -3544,6 +3809,9 @@
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8">
@@ -3551,6 +3819,9 @@
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3560,6 +3831,9 @@
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8">
@@ -3568,6 +3842,9 @@
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="8">
@@ -3576,620 +3853,786 @@
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="8">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="8">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="8">
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="8">
-        <v>9</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="8">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="8">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="8">
         <v>3</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="8">
+        <v>4</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="8">
+        <v>5</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="8">
+        <v>6</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="8">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="8">
-        <v>4</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="8">
-        <v>5</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8">
-        <v>6</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="8">
-        <v>7</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8">
-        <v>8</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="8">
-        <v>9</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="8">
+      <c r="B31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="8">
+        <v>9</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8">
         <v>10</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="8">
-        <v>1</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="8">
-        <v>2</v>
-      </c>
       <c r="B33" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="8">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="8">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="8">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="8">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="8">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="8">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="8">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="8">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="8">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="8">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="8">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="8">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="8">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="8">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="8">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="8">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="8">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="8">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="8">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="8">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="8">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="8">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="8">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="8">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="8">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="8">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="8">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="8">
-        <v>48</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="8">
-        <v>49</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="8">
-        <v>50</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="8">
-        <v>51</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="8">
-        <v>52</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="8">
-        <v>53</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="8">
-        <v>54</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="8">
-        <v>55</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="9"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="9"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="9"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="9"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="9"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="9"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="9"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="9"/>
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" s="9"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:1">
       <c r="A93" s="9"/>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="9"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="9"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="9"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="9"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="9"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="9"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="9"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="9"/>
+    <row r="114" spans="1:3">
+      <c r="A114" s="7"/>
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="7"/>
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="7"/>
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="7"/>
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="7"/>
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="7"/>
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="7"/>
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="7"/>
+      <c r="B121" s="4"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="7"/>
@@ -4388,42 +4831,42 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="7"/>
-      <c r="B161" s="4"/>
+      <c r="B161" s="5"/>
       <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="7"/>
-      <c r="B162" s="4"/>
+      <c r="B162" s="5"/>
       <c r="C162" s="3"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="7"/>
-      <c r="B163" s="4"/>
+      <c r="B163" s="5"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="7"/>
-      <c r="B164" s="4"/>
+      <c r="B164" s="5"/>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="7"/>
-      <c r="B165" s="4"/>
+      <c r="B165" s="5"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="7"/>
-      <c r="B166" s="4"/>
+      <c r="B166" s="5"/>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="7"/>
-      <c r="B167" s="4"/>
+      <c r="B167" s="5"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="7"/>
-      <c r="B168" s="4"/>
+      <c r="B168" s="5"/>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3">
@@ -4462,43 +4905,27 @@
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="7"/>
-      <c r="B176" s="5"/>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="7"/>
-      <c r="B177" s="5"/>
+    <row r="177" spans="3:3">
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="7"/>
-      <c r="B178" s="5"/>
+    <row r="178" spans="3:3">
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="7"/>
-      <c r="B179" s="5"/>
+    <row r="179" spans="3:3">
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="7"/>
-      <c r="B180" s="5"/>
+    <row r="180" spans="3:3">
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="7"/>
-      <c r="B181" s="5"/>
+    <row r="181" spans="3:3">
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="7"/>
-      <c r="B182" s="5"/>
+    <row r="182" spans="3:3">
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="7"/>
-      <c r="B183" s="5"/>
+    <row r="183" spans="3:3">
       <c r="C183" s="1"/>
     </row>
   </sheetData>

--- a/Data Collection/execution_result.xlsx
+++ b/Data Collection/execution_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1000" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="90">
   <si>
     <t>Q5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>match(p:person) where (p.gender='Male' and p.age&gt;=0 and p.age&lt;=100) and (p.gender='Female' and p.age&gt;=0 and p.age&lt;=100) return p;</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -3700,10 +3703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3711,10 +3714,11 @@
     <col min="1" max="1" width="7" style="8" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="8" customWidth="1"/>
+    <col min="5" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -3724,23 +3728,26 @@
       <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3751,7 +3758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3762,7 +3769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3784,7 +3791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3795,7 +3802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -3806,7 +3813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -3817,7 +3824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -3828,7 +3835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -3839,7 +3846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -3850,7 +3857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -3861,7 +3868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="8">
         <v>2</v>
       </c>
@@ -3872,7 +3879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -3883,7 +3890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -3894,7 +3901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>3</v>
       </c>
@@ -4957,10 +4964,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4968,10 +4975,12 @@
     <col min="1" max="1" width="7" style="8" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="8" customWidth="1"/>
+    <col min="5" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -4981,23 +4990,26 @@
       <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -5008,7 +5020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -5019,7 +5031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -5030,7 +5042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -5041,7 +5053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -5052,7 +5064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -5063,7 +5075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -5074,7 +5086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -5085,7 +5097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -5096,7 +5108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -5107,7 +5119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -5118,7 +5130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="8">
         <v>2</v>
       </c>
@@ -5129,7 +5141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -5140,7 +5152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -5151,7 +5163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>3</v>
       </c>
@@ -6213,10 +6225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6224,10 +6236,11 @@
     <col min="1" max="1" width="7" style="8" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="8" customWidth="1"/>
+    <col min="5" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -6237,23 +6250,26 @@
       <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -6264,7 +6280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -6275,7 +6291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -6286,7 +6302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -6297,7 +6313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -6308,7 +6324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -6319,7 +6335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -6330,7 +6346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -6341,7 +6357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -6352,7 +6368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -6363,7 +6379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -6374,7 +6390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="8">
         <v>2</v>
       </c>
@@ -6385,7 +6401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -6396,7 +6412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -6407,7 +6423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>3</v>
       </c>
@@ -7469,10 +7485,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7480,10 +7496,11 @@
     <col min="1" max="1" width="7" style="8" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" style="8"/>
+    <col min="5" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -7493,23 +7510,26 @@
       <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -7520,7 +7540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -7531,7 +7551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -7542,7 +7562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -7553,7 +7573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -7564,7 +7584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -7575,7 +7595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -7586,7 +7606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -7597,7 +7617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -7608,7 +7628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -7619,7 +7639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -7630,7 +7650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="8">
         <v>2</v>
       </c>
@@ -7641,7 +7661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -7652,7 +7672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -7663,7 +7683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>3</v>
       </c>
@@ -8725,10 +8745,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8736,10 +8756,11 @@
     <col min="1" max="1" width="7" style="8" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" style="8"/>
+    <col min="5" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -8749,23 +8770,26 @@
       <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -8776,7 +8800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -8787,7 +8811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -8798,7 +8822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -8809,7 +8833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -8820,7 +8844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -8831,7 +8855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -8842,7 +8866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -8853,7 +8877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -8864,7 +8888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -8875,7 +8899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -8886,7 +8910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="8">
         <v>2</v>
       </c>
@@ -8897,7 +8921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -8908,7 +8932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -8919,7 +8943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>3</v>
       </c>
@@ -9981,10 +10005,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9992,10 +10016,11 @@
     <col min="1" max="1" width="7" style="8" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" style="8"/>
+    <col min="5" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -10005,23 +10030,26 @@
       <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -10032,7 +10060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -10043,7 +10071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -10054,7 +10082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -10065,7 +10093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -10076,7 +10104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -10087,7 +10115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -10098,7 +10126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -10109,7 +10137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -10120,7 +10148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -10131,7 +10159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -10142,7 +10170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="8">
         <v>2</v>
       </c>
@@ -10153,7 +10181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -10164,7 +10192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -10175,7 +10203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>3</v>
       </c>
@@ -11237,10 +11265,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11248,10 +11276,11 @@
     <col min="1" max="1" width="7" style="8" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" style="8"/>
+    <col min="5" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -11261,23 +11290,26 @@
       <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -11288,7 +11320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -11299,7 +11331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -11310,7 +11342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -11321,7 +11353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -11332,7 +11364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -11343,7 +11375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -11354,7 +11386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -11365,7 +11397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -11376,7 +11408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -11387,7 +11419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -11398,7 +11430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="8">
         <v>2</v>
       </c>
@@ -11409,7 +11441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -11420,7 +11452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -11431,7 +11463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>3</v>
       </c>
@@ -12493,10 +12525,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12504,10 +12536,11 @@
     <col min="1" max="1" width="7" style="8" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" style="8"/>
+    <col min="5" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -12517,23 +12550,26 @@
       <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -12544,7 +12580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -12555,7 +12591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -12566,7 +12602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -12577,7 +12613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -12588,7 +12624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -12599,7 +12635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -12610,7 +12646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -12621,7 +12657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -12632,7 +12668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -12643,7 +12679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -12654,7 +12690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="8">
         <v>2</v>
       </c>
@@ -12665,7 +12701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -12676,7 +12712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -12687,7 +12723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>3</v>
       </c>
@@ -13749,10 +13785,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13760,10 +13796,11 @@
     <col min="1" max="1" width="7" style="8" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" style="8"/>
+    <col min="5" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -13773,23 +13810,26 @@
       <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -13800,7 +13840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -13811,7 +13851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -13822,7 +13862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -13833,7 +13873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -13844,7 +13884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -13855,7 +13895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -13866,7 +13906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -13877,7 +13917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -13888,7 +13928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -13899,7 +13939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -13910,7 +13950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="8">
         <v>2</v>
       </c>
@@ -13921,7 +13961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -13932,7 +13972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -13943,7 +13983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>3</v>
       </c>
@@ -15005,10 +15045,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15016,10 +15056,11 @@
     <col min="1" max="1" width="7" style="8" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11.83203125" customWidth="1"/>
+    <col min="4" max="8" width="11.83203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -15029,23 +15070,26 @@
       <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -15056,7 +15100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -15067,7 +15111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -15078,7 +15122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -15089,7 +15133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -15100,7 +15144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -15111,7 +15155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -15122,7 +15166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -15133,7 +15177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -15144,7 +15188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -15155,7 +15199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -15166,7 +15210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="8">
         <v>2</v>
       </c>
@@ -15177,7 +15221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -15188,7 +15232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -15199,7 +15243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>3</v>
       </c>

--- a/Data Collection/execution_result.xlsx
+++ b/Data Collection/execution_result.xlsx
@@ -3584,7 +3584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data Collection/execution_result.xlsx
+++ b/Data Collection/execution_result.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Files\git\COMS561_GraphDatabase_Research\Data Collection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17325" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1000" sheetId="27" r:id="rId1"/>
@@ -28,11 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="50">
-  <si>
-    <t>Q5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="57">
   <si>
     <t>S</t>
   </si>
@@ -180,24 +181,41 @@
   <si>
     <t>D</t>
   </si>
+  <si>
+    <t>Added 1000 labels, created 1000 nodes, set 4000 properties, statement executed in 1509 ms.</t>
+  </si>
+  <si>
+    <t>Added 1002 labels, created 1002 nodes, set 2002 properties, created 1000 relationships, statement executed in 1030 ms.</t>
+  </si>
+  <si>
+    <t>Added 1100 labels, created 1100 nodes, set 2100 properties, created 1000 relationships, statement executed in 6863 ms.</t>
+  </si>
+  <si>
+    <t>Added 1102 labels, created 1102 nodes, set 1102 properties, created 2000 relationships, statement executed in 1447 ms.</t>
+  </si>
+  <si>
+    <t>Added 1300 labels, created 1300 nodes, set 1500 properties, created 1200 relationships, statement executed in 8163 ms.</t>
+  </si>
+  <si>
+    <t>Added 1202 labels, created 1202 nodes, set 1402 properties, created 1200 relationships, statement executed in 7372 ms.</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>Build Database Consumed time:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,1492 +264,1492 @@
   </borders>
   <cellStyleXfs count="1485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1745,7 +1763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1756,6 +1774,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1485">
@@ -3245,8 +3269,36 @@
     <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3584,45 +3636,45 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="7"/>
-    <col min="5" max="9" width="11.83203125" customWidth="1"/>
+    <col min="5" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3630,10 +3682,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3641,10 +3693,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3652,10 +3704,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3663,10 +3715,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3674,10 +3726,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3685,10 +3737,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3696,10 +3748,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3707,10 +3759,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3718,10 +3770,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3729,10 +3781,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3740,10 +3792,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3751,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3762,10 +3814,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3773,10 +3825,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3784,10 +3836,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3795,10 +3847,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3806,10 +3858,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3817,10 +3869,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3828,10 +3880,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3839,10 +3891,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3850,10 +3902,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3861,10 +3913,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3872,10 +3924,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3883,10 +3935,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3894,10 +3946,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3905,10 +3957,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3916,10 +3968,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3927,10 +3979,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3938,10 +3990,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3949,10 +4001,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3960,124 +4012,144 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="7">
         <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="7">
         <v>11</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="7">
         <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="7">
         <v>13</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="7">
         <v>14</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="7">
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="173.25">
       <c r="A39"/>
       <c r="B39" s="7"/>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="C39" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40"/>
       <c r="B40" s="7"/>
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:9">
       <c r="A41"/>
       <c r="B41" s="7"/>
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:9">
       <c r="A42"/>
       <c r="B42" s="7"/>
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:9">
       <c r="A43"/>
       <c r="B43" s="7"/>
       <c r="D43"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:9">
       <c r="A44"/>
       <c r="B44" s="7"/>
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:9">
       <c r="A45"/>
       <c r="B45" s="7"/>
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:9">
       <c r="A46"/>
       <c r="B46" s="7"/>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:9">
       <c r="A47"/>
       <c r="B47" s="7"/>
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:9">
       <c r="A48"/>
       <c r="B48" s="7"/>
       <c r="D48"/>
@@ -4627,45 +4699,45 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="113.33203125" customWidth="1"/>
+    <col min="3" max="3" width="113.375" customWidth="1"/>
     <col min="4" max="4" width="11" style="7"/>
-    <col min="5" max="9" width="11.83203125" customWidth="1"/>
+    <col min="5" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4673,10 +4745,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4684,10 +4756,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4695,10 +4767,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4706,10 +4778,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4717,10 +4789,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4728,10 +4800,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4739,10 +4811,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4750,10 +4822,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4761,10 +4833,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4772,10 +4844,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4783,10 +4855,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4794,10 +4866,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4805,10 +4877,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4816,10 +4888,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4827,10 +4899,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4838,10 +4910,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4849,10 +4921,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4860,10 +4932,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4871,10 +4943,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4882,10 +4954,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4893,10 +4965,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4904,10 +4976,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4915,10 +4987,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4926,10 +4998,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4937,10 +5009,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4948,10 +5020,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4959,10 +5031,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4970,10 +5042,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4981,10 +5053,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4992,10 +5064,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5003,10 +5075,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5014,10 +5086,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5025,10 +5097,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5036,10 +5108,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5047,10 +5119,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5058,10 +5130,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5069,10 +5141,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5668,47 +5740,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="7"/>
-    <col min="5" max="9" width="11.83203125" customWidth="1"/>
+    <col min="5" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5716,10 +5788,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5727,10 +5799,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5738,10 +5810,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5749,10 +5821,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5760,10 +5832,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5771,10 +5843,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5782,10 +5854,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5793,10 +5865,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5804,10 +5876,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5815,10 +5887,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5826,10 +5898,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5837,10 +5909,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5848,10 +5920,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5859,10 +5931,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5870,10 +5942,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5881,10 +5953,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5892,10 +5964,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5903,10 +5975,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5914,10 +5986,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5925,10 +5997,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5936,10 +6008,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5947,10 +6019,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5958,10 +6030,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5969,10 +6041,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5980,10 +6052,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5991,10 +6063,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6002,10 +6074,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6013,10 +6085,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6024,10 +6096,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6035,10 +6107,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6046,10 +6118,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6057,10 +6129,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6068,10 +6140,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6079,10 +6151,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6090,10 +6162,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6101,10 +6173,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6112,10 +6184,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6711,47 +6783,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="7"/>
-    <col min="5" max="9" width="11.83203125" customWidth="1"/>
+    <col min="5" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6759,10 +6831,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6770,10 +6842,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6781,10 +6853,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6792,10 +6864,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6803,10 +6875,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6814,10 +6886,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6825,10 +6897,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6836,10 +6908,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6847,10 +6919,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6858,10 +6930,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6869,10 +6941,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6880,10 +6952,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6891,10 +6963,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6902,10 +6974,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6913,10 +6985,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6924,10 +6996,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6935,10 +7007,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6946,10 +7018,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6957,10 +7029,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6968,10 +7040,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6979,10 +7051,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6990,10 +7062,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7001,10 +7073,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7012,10 +7084,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7023,10 +7095,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7034,10 +7106,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7045,10 +7117,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7056,10 +7128,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7067,10 +7139,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7078,10 +7150,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7089,10 +7161,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7100,10 +7172,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7111,10 +7183,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7122,10 +7194,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7133,10 +7205,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7144,10 +7216,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7155,10 +7227,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7754,47 +7826,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="7"/>
-    <col min="5" max="9" width="11.83203125" customWidth="1"/>
+    <col min="5" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7802,10 +7874,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7813,10 +7885,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7824,10 +7896,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7835,10 +7907,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7846,10 +7918,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7857,10 +7929,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7868,10 +7940,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -7879,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -7890,10 +7962,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7901,10 +7973,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7912,10 +7984,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7923,10 +7995,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7934,10 +8006,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7945,10 +8017,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -7956,10 +8028,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7967,10 +8039,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7978,10 +8050,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7989,10 +8061,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8000,10 +8072,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8011,10 +8083,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8022,10 +8094,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8033,10 +8105,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8044,10 +8116,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8055,10 +8127,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8066,10 +8138,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8077,10 +8149,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8088,10 +8160,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8099,10 +8171,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8110,10 +8182,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8121,10 +8193,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8132,10 +8204,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8143,10 +8215,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8154,10 +8226,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -8165,10 +8237,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8176,10 +8248,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -8187,10 +8259,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -8198,10 +8270,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -8799,45 +8871,45 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="7"/>
-    <col min="5" max="9" width="11.83203125" customWidth="1"/>
+    <col min="5" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -8845,10 +8917,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8856,10 +8928,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8867,10 +8939,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8878,10 +8950,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8889,10 +8961,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8900,10 +8972,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8911,10 +8983,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8922,10 +8994,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8933,10 +9005,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8944,10 +9016,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8955,10 +9027,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -8966,10 +9038,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -8977,10 +9049,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -8988,10 +9060,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -8999,10 +9071,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9010,10 +9082,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9021,10 +9093,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9032,10 +9104,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9043,10 +9115,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9054,10 +9126,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9065,10 +9137,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9076,10 +9148,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9087,10 +9159,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9098,10 +9170,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9109,10 +9181,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -9120,10 +9192,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9131,10 +9203,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9142,10 +9214,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9153,10 +9225,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9164,10 +9236,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9175,10 +9247,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -9186,10 +9258,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -9197,10 +9269,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -9208,10 +9280,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -9219,10 +9291,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -9230,10 +9302,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -9241,10 +9313,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -9842,45 +9914,45 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="7"/>
-    <col min="5" max="9" width="11.83203125" customWidth="1"/>
+    <col min="5" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9888,10 +9960,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9899,10 +9971,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9910,10 +9982,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9921,10 +9993,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9932,10 +10004,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9943,10 +10015,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9954,10 +10026,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9965,10 +10037,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9976,10 +10048,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9987,10 +10059,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9998,10 +10070,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10009,10 +10081,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10020,10 +10092,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10031,10 +10103,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10042,10 +10114,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -10053,10 +10125,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -10064,10 +10136,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -10075,10 +10147,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -10086,10 +10158,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -10097,10 +10169,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -10108,10 +10180,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -10119,10 +10191,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -10130,10 +10202,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -10141,10 +10213,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -10152,10 +10224,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -10163,10 +10235,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -10174,10 +10246,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -10185,10 +10257,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -10196,10 +10268,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -10207,10 +10279,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -10218,10 +10290,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -10229,10 +10301,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -10240,10 +10312,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -10251,10 +10323,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -10262,10 +10334,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -10273,10 +10345,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -10284,10 +10356,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -10885,45 +10957,45 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="7"/>
-    <col min="5" max="9" width="11.83203125" customWidth="1"/>
+    <col min="5" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -10931,10 +11003,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10942,10 +11014,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10953,10 +11025,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10964,10 +11036,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10975,10 +11047,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10986,10 +11058,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10997,10 +11069,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11008,10 +11080,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11019,10 +11091,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11030,10 +11102,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11041,10 +11113,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11052,10 +11124,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11063,10 +11135,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11074,10 +11146,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11085,10 +11157,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11096,10 +11168,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11107,10 +11179,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11118,10 +11190,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11129,10 +11201,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11140,10 +11212,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11151,10 +11223,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11162,10 +11234,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11173,10 +11245,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11184,10 +11256,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -11195,10 +11267,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -11206,10 +11278,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -11217,10 +11289,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -11228,10 +11300,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -11239,10 +11311,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -11250,10 +11322,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -11261,10 +11333,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -11272,10 +11344,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11283,10 +11355,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -11294,10 +11366,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -11305,10 +11377,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -11316,10 +11388,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -11327,10 +11399,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -11928,45 +12000,45 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="7"/>
-    <col min="5" max="9" width="11.83203125" customWidth="1"/>
+    <col min="5" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -11974,10 +12046,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11985,10 +12057,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11996,10 +12068,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -12007,10 +12079,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -12018,10 +12090,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -12029,10 +12101,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -12040,10 +12112,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12051,10 +12123,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -12062,10 +12134,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -12073,10 +12145,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -12084,10 +12156,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -12095,10 +12167,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -12106,10 +12178,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -12117,10 +12189,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -12128,10 +12200,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -12139,10 +12211,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -12150,10 +12222,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -12161,10 +12233,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -12172,10 +12244,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -12183,10 +12255,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -12194,10 +12266,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -12205,10 +12277,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -12216,10 +12288,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -12227,10 +12299,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -12238,10 +12310,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -12249,10 +12321,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -12260,10 +12332,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -12271,10 +12343,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -12282,10 +12354,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -12293,10 +12365,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -12304,10 +12376,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -12315,10 +12387,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -12326,10 +12398,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -12337,10 +12409,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -12348,10 +12420,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -12359,10 +12431,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -12370,10 +12442,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -12971,45 +13043,45 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="7"/>
-    <col min="5" max="9" width="11.83203125" customWidth="1"/>
+    <col min="5" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -13017,10 +13089,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -13028,10 +13100,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13039,10 +13111,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13050,10 +13122,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13061,10 +13133,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13072,10 +13144,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13083,10 +13155,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13094,10 +13166,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13105,10 +13177,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13116,10 +13188,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13127,10 +13199,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13138,10 +13210,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13149,10 +13221,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13160,10 +13232,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13171,10 +13243,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13182,10 +13254,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -13193,10 +13265,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13204,10 +13276,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13215,10 +13287,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -13226,10 +13298,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -13237,10 +13309,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13248,10 +13320,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13259,10 +13331,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13270,10 +13342,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -13281,10 +13353,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -13292,10 +13364,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -13303,10 +13375,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -13314,10 +13386,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -13325,10 +13397,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -13336,10 +13408,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -13347,10 +13419,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -13358,10 +13430,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -13369,10 +13441,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -13380,10 +13452,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -13391,10 +13463,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -13402,10 +13474,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -13413,10 +13485,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4">
